--- a/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -490,7 +490,7 @@
     <t>DICOMスタディインスタンスUIDやアクセッション番号などのImagingStudyの識別子。</t>
   </si>
   <si>
-    <t>DICOMスタディインスタンスUIDのエンコードについては、[Imaging Study Implementation Notes]（imagingstudy.html＃notes）の説明を参照。アクセッション番号はACSN識別子タイプを使用する必要がある。  
+    <t>DICOMスタディインスタンスUIDのエンコードについては、[Imaging Study Implementation Notes]（imagingstudy.html#notes）の説明を参照。アクセッション番号はACSN識別子タイプを使用する必要がある。  
 【JP-Core仕様】Study Instance UIDは画像が存在する場合に必須、その他は任意。StudyInstanceUID (0020,000D)</t>
   </si>
   <si>
@@ -560,7 +560,7 @@
     <t>実際の取得モダリティであるすべてのseries.modality値のリスト、つまりDICOMコンテキストグループ29（値セットOID 1.2.840.10008.6.1.19）の値。</t>
   </si>
   <si>
-    <t>コードは、列挙型またはコードリストで、SNOMED CTなどの非常に正式な定義まで、非常にカジュアルに定義できる。詳細については、HL7v3コア原則を参照のこと。  
+    <t>コードは、列挙型またはコードリストで、DICOMのモダリティコードを利用する。  
 ・モダリティのコードを設定。  
 ・Seriesの階層の(0008,0060)を集約する、または(0008,0060)　と　(0008, 0061) のOR。但し、重複する値は1つにまとめて表現。</t>
   </si>
@@ -1152,11 +1152,9 @@
     <t>シリーズが取得されたモダリティー</t>
   </si>
   <si>
-    <t>コードは、列挙型またはコードリストで、SNOMED CTなどの非常に正式な定義まで、非常に柔軟に定義できる。ただしJP CoreではSNOMED CTを推奨しない。詳細については、HL7v3コア原則を参照。  
-当該シリーズのモダリティコード。1シリーズ1モダリティ（1つのシリーズの中に複数のモダリティが混在することはない）。  
-（参照先）  
-ftp://medical.nema.org/medical/dicom/resources/valuesets/fhir/json/CID_29.json  
-https://dicom.nema.org/medical/dicom/current/output/chtml/part16/sect_CID_29.html</t>
+    <t>JP CoreではDICOMのモダリティコードを利用する。SNOMED CTは推奨しない。  
+（参照先）   
+http://jpfhir.jp/fhir/core/ValueSet/JP_DICOMModality_VS.html</t>
   </si>
   <si>
     <t>(0008,0060)</t>
